--- a/Data/Transitions/19431973Translation.xlsx
+++ b/Data/Transitions/19431973Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="757">
   <si>
     <t>id</t>
   </si>
@@ -79,13 +79,13 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927723425900513}</t>
+    <t>{49.0: 0.8862897962909823}</t>
   </si>
   <si>
     <t>{50.0: 0.989247311827957, 96.0: 0.989247311827957, 100.0: 0.989247311827957}</t>
@@ -139,7 +139,7 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
   </si>
   <si>
     <t>{81.0: 0.9862542955326461}</t>
@@ -169,16 +169,16 @@
     <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728}</t>
   </si>
   <si>
-    <t>{91.0: 0.96351849239523, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.004867508316901873}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9562348658443437, 91.0: 0.03648150760476995, 858.0: 0.10635135141719504}</t>
+    <t>{91.0: 0.96351849239523, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.00453890631355781}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9562348658443437, 91.0: 0.03648150760476995, 858.0: 0.09917164778675883}</t>
   </si>
   <si>
     <t>{95.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9748096321134647}</t>
+    <t>{97.0: 0.9748314063154819}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -220,7 +220,7 @@
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{145.0: 0.9987441357199506, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.03131128830016397, 152.0: 0.00036603571619543685}</t>
+    <t>{145.0: 0.9987441357199506, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.03131128830016397, 152.0: 0.00036603571619543685}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -268,7 +268,7 @@
     <t>{171.0: 0.934845750020056}</t>
   </si>
   <si>
-    <t>{172.0: 1.0, 81.0: 0.013745704467353952, 97.0: 0.001254904263791793}</t>
+    <t>{172.0: 1.0, 81.0: 0.013745704467353952, 97.0: 0.0012549322944329067}</t>
   </si>
   <si>
     <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 831.0: 0.004032258064516129}</t>
@@ -286,7 +286,7 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9847554038680318, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
+    <t>{178.0: 0.9847554038680318, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
   </si>
   <si>
     <t>{179.0: 1.0, 180.0: 0.2102963895697321}</t>
@@ -307,10 +307,10 @@
     <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06}</t>
   </si>
   <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
   </si>
   <si>
     <t>{202.0: 0.29814984568413466, 307.0: 0.9834669117201308}</t>
@@ -391,13 +391,13 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10722765740994868}</t>
+    <t>{49.0: 0.1137102037090177}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
@@ -415,10 +415,10 @@
     <t>{244.0: 0.9799247176913425, 565.0: 0.00771386760273191, 564.0: 0.00018847476794044198, 84.0: 6.004536785832098e-05}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06, 618.0: 0.0016652789342214821}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06, 618.0: 0.0016652789342214821}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -439,7 +439,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -463,7 +463,7 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
   </si>
   <si>
     <t>{263.0: 0.9979662270430174}</t>
@@ -472,7 +472,7 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.0657712818487063}</t>
+    <t>{400.0: 0.061638130495141136}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 1.0}</t>
@@ -511,7 +511,7 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195}</t>
   </si>
   <si>
     <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 908.0: 0.04976895689720476, 788.0: 0.0027733768944140946, 142.0: 1.797534470597053e-05}</t>
@@ -550,7 +550,7 @@
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 1.0, 145.0: 0.00038146212501716855, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.195908956541287e-05, 152.0: 1.3980433740563627e-07}</t>
+    <t>{301.0: 1.0, 145.0: 0.00038146212501716855, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.195908956541287e-05, 152.0: 1.3980433740563627e-07}</t>
   </si>
   <si>
     <t>{303.0: 0.9475683890577508, 840.0: 0.10136869118905047}</t>
@@ -574,7 +574,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -595,7 +595,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -604,7 +604,7 @@
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9342287181512937, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
+    <t>{400.0: 0.9383618695048589, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379, 165.0: 0.0005466721333880005, 914.0: 0.0001117479774241194, 110.0: 1.5428089554535637e-05}</t>
@@ -673,10 +673,10 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.2669725101108509, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7321078791910113}</t>
+    <t>{428.0: 0.2118598838073569, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7872205054945053}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
@@ -763,13 +763,13 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015244596131968146, 97.0: 0.023935463622743416}</t>
+    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015244596131968146, 97.0: 0.023913661390085057}</t>
   </si>
   <si>
     <t>{493.0: 0.9964826549013788}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.2463708207241241e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.2463708207241241e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -826,7 +826,7 @@
     <t>{536.0: 1.0, 779.0: 0.9517781796262809}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267, 293.0: 0.035617916891527254}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826, 293.0: 0.035617916891527254}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
@@ -838,7 +838,7 @@
     <t>{540.0: 1.0, 428.0: 0.0009196106981377883}</t>
   </si>
   <si>
-    <t>{542.0: 1.0, 911.0: 0.012496045555204052}</t>
+    <t>{542.0: 1.0, 911.0: 0.012482224680044242}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -892,7 +892,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -910,16 +910,16 @@
     <t>{588.0: 1.0}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401, 171.0: 0.001857864099887012}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 171.0: 0.003889262336894597, 85.0: 0.005416860752281957, 492.0: 1.8647119341563785e-05}</t>
+    <t>{593.0: 0.49682353666810586, 171.0: 0.0028553076820006084}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 171.0: 0.0028918187547810007, 85.0: 0.005416860752281957, 492.0: 1.8647119341563785e-05}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -949,7 +949,7 @@
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 610.0: 0.46377929329690437, 531.0: 0.12147832833239579, 262.0: 0.0026866848142964757, 442.0: 0.0002552065721268819, 886.0: 0.05296831411160708, 1.0: 1.0}</t>
@@ -976,7 +976,7 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 0.9983347210657785, 789.0: 0.10684711957973467, 681.0: 0.008360022404934518, 171.0: 4.019628965645018e-05, 90.0: 6.01421623358749e-06, 420.0: 1.042437961507482e-08, 212.0: 6.516894539153505e-05}</t>
+    <t>{618.0: 0.9983347210657785, 789.0: 0.10684711957973467, 681.0: 0.008359295381328206, 171.0: 4.019628965645018e-05, 90.0: 6.01421623358749e-06, 420.0: 1.042437961507482e-08, 212.0: 6.516894539153505e-05}</t>
   </si>
   <si>
     <t>{619.0: 0.9992133045579098}</t>
@@ -1030,7 +1030,7 @@
     <t>{680.0: 0.9762594508880611, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 477.0: 4.470586942759928e-05, 202.0: 3.445934204132267e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
   </si>
   <si>
-    <t>{681.0: 0.9038226351951332, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007045575370934223}</t>
+    <t>{681.0: 0.9037440348804595, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007045575370934223}</t>
   </si>
   <si>
     <t>{682.0: 0.9972826086956522, 575.0: 0.001898599635799961}</t>
@@ -1069,10 +1069,10 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20776196468091965}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7922380353190803, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.4351638564266561}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5648361435733439, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1123,16 +1123,16 @@
     <t>{739.0: 1.0, 831.0: 0.0011072459610177697}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.8931528804202653, 681.0: 0.06988282061991512, 171.0: 0.00033600748461987644, 90.0: 5.0273835865930085e-05, 420.0: 8.713912659901293e-08, 212.0: 0.00054475807601874}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.0002183776634512975, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
+    <t>{740.0: 1.0, 789.0: 0.8931528804202653, 681.0: 0.06987674330841935, 171.0: 0.00033600748461987644, 90.0: 5.0273835865930085e-05, 420.0: 8.713912659901293e-08, 212.0: 0.00054475807601874}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.0002183776634512975, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1219,7 +1219,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9927452636939863, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9927452636939863, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{787.0: 1.0, 500.0: 0.0077458518588053235, 277.0: 2.053999443459568e-06}</t>
@@ -1264,7 +1264,7 @@
     <t>{846.0: 0.9996156310057656}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.9232439017315892}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.9228851136919364}</t>
   </si>
   <si>
     <t>{849.0: 1.0, 315.0: 0.002220029600394672}</t>
@@ -1294,7 +1294,7 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.06410669123707292}</t>
+    <t>{858.0: 0.308581204304183}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1315,7 +1315,7 @@
     <t>{887.0: 0.9495979142632915, 619.0: 0.0006435006435006435, 267.0: 0.07029177718832891}</t>
   </si>
   <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{909.0: 0.8854133685873632}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538}</t>
   </si>
   <si>
     <t>{861.0: 1.0, 225.0: 1.0, 779.0: 0.04822182037371911, 493.0: 0.0028425812659627287, 619.0: 0.0001431947985895543}</t>
@@ -1420,7 +1420,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1429,7 +1429,7 @@
     <t>{942.0: 0.9686767526102706}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082, 634.0: 0.07675609826841082}</t>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371, 634.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
@@ -1627,7 +1627,7 @@
     <t>{177.0: 0.9988607234406153, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.0071717530791852065, 768.0: 0.006568020534500982}</t>
+    <t>{178.0: 0.9862044958405799, 681.0: 0.0072274836249193305, 768.0: 0.006568020534500982}</t>
   </si>
   <si>
     <t>{179.0: 0.8967913904273564, 180.0: 0.10320860957264365}</t>
@@ -1723,7 +1723,7 @@
     <t>{271.0: 0.8115203638861601, 237.0: 0.1884796361138399}</t>
   </si>
   <si>
-    <t>{275.0: 0.9445925803714912, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
+    <t>{275.0: 0.944592580371491, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937943, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1780,9 +1780,6 @@
     <t>{315.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 0.8644858180802012, 98.0: 0.04427483582506636, 532.0: 0.0650062875506497, 560.0: 0.026233058544082716}</t>
   </si>
   <si>
@@ -2140,7 +2137,7 @@
     <t>{781.0: 0.9992775312209718, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.20471452899524964}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611932, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2260,13 +2257,13 @@
     <t>{936.0: 0.9836341995635787, 637.0: 0.016365800436421343}</t>
   </si>
   <si>
-    <t>{940.0: 0.9864997747918502, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9864997747918502, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249447, 848.0: 0.16133961771190689, 634.0: 0.03863811026314845}</t>
+    <t>{943.0: 0.770064142065748, 848.0: 0.1855094754451809, 634.0: 0.04442638248907136}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
@@ -4760,7 +4757,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>588</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4771,7 +4768,7 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4782,7 +4779,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4793,7 +4790,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4804,7 +4801,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4815,7 +4812,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4826,7 +4823,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4837,7 +4834,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4881,7 +4878,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4903,7 +4900,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4947,7 +4944,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4969,7 +4966,7 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5002,7 +4999,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5024,7 +5021,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5046,7 +5043,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5057,7 +5054,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5101,7 +5098,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5123,7 +5120,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5134,7 +5131,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5145,7 +5142,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5167,7 +5164,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5200,7 +5197,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5211,7 +5208,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5222,7 +5219,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5233,7 +5230,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5244,7 +5241,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5255,7 +5252,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5277,7 +5274,7 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5343,7 +5340,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5376,7 +5373,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5387,7 +5384,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5398,7 +5395,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5420,7 +5417,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5442,7 +5439,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5453,7 +5450,7 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5497,7 +5494,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5530,7 +5527,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5541,7 +5538,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5552,7 +5549,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5574,7 +5571,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5596,7 +5593,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5607,7 +5604,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5618,7 +5615,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5640,7 +5637,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5651,7 +5648,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5673,7 +5670,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5684,7 +5681,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5695,7 +5692,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5706,7 +5703,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5717,7 +5714,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5728,7 +5725,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5750,7 +5747,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5761,7 +5758,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5783,7 +5780,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5794,7 +5791,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5816,7 +5813,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5827,7 +5824,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5849,7 +5846,7 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5871,7 +5868,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5882,7 +5879,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5915,7 +5912,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5937,7 +5934,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5948,7 +5945,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5970,7 +5967,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5981,7 +5978,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6003,7 +6000,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6014,7 +6011,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6025,7 +6022,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6036,7 +6033,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6047,7 +6044,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6058,7 +6055,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6069,7 +6066,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6091,7 +6088,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6102,7 +6099,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6135,7 +6132,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6157,7 +6154,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6168,7 +6165,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6190,7 +6187,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6245,7 +6242,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6267,7 +6264,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6322,7 +6319,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6333,7 +6330,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6344,7 +6341,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6355,7 +6352,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6366,7 +6363,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6377,7 +6374,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6388,7 +6385,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6399,7 +6396,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6410,7 +6407,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6421,7 +6418,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6432,7 +6429,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6454,7 +6451,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6465,7 +6462,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6476,7 +6473,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6498,7 +6495,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6509,7 +6506,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6520,7 +6517,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6553,7 +6550,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6575,7 +6572,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6586,7 +6583,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6597,7 +6594,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6630,7 +6627,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6641,7 +6638,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6674,7 +6671,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6685,7 +6682,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6696,7 +6693,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6707,7 +6704,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6718,7 +6715,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6729,7 +6726,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6773,7 +6770,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6817,7 +6814,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6828,7 +6825,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6839,7 +6836,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6850,7 +6847,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6883,7 +6880,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6916,7 +6913,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6949,7 +6946,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6960,7 +6957,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7004,7 +7001,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7015,7 +7012,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7048,7 +7045,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7059,7 +7056,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7070,7 +7067,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7092,7 +7089,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7103,7 +7100,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7114,7 +7111,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7125,7 +7122,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7136,7 +7133,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7147,7 +7144,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7158,7 +7155,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7169,7 +7166,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7202,7 +7199,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7213,7 +7210,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7224,7 +7221,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7246,7 +7243,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7257,7 +7254,7 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7268,7 +7265,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7378,7 +7375,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7389,7 +7386,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7400,7 +7397,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7455,7 +7452,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7466,7 +7463,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7477,7 +7474,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7488,7 +7485,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7499,7 +7496,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7510,7 +7507,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7521,7 +7518,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7532,7 +7529,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7554,7 +7551,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7576,7 +7573,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7587,7 +7584,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7598,7 +7595,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7620,7 +7617,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7631,7 +7628,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7664,7 +7661,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7697,7 +7694,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7719,7 +7716,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7730,7 +7727,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7741,7 +7738,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7763,7 +7760,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7785,7 +7782,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7807,7 +7804,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7818,7 +7815,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7829,7 +7826,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7840,7 +7837,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7862,7 +7859,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7873,7 +7870,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7906,7 +7903,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -7917,7 +7914,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7928,7 +7925,7 @@
         <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7972,7 +7969,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
